--- a/planeacion/Registro_Actividades_Sistema.xlsx
+++ b/planeacion/Registro_Actividades_Sistema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Actividad</t>
   </si>
@@ -117,9 +117,6 @@
     <t>10:45pm</t>
   </si>
   <si>
-    <t>11:32pm</t>
-  </si>
-  <si>
     <t>Llenado de la base de datos</t>
   </si>
   <si>
@@ -283,6 +280,21 @@
   </si>
   <si>
     <t>1:00pm</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>11:35pm</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1.6</t>
+  </si>
+  <si>
+    <t>9:05pm</t>
   </si>
 </sst>
 </file>
@@ -298,12 +310,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,11 +336,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +658,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,10 +680,25 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -671,7 +707,7 @@
         <v>42115</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -682,8 +718,11 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -703,8 +742,11 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -724,8 +766,11 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -745,8 +790,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -766,8 +814,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -787,8 +838,11 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -810,8 +864,11 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -825,7 +882,7 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -833,8 +890,11 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -853,10 +913,13 @@
       <c r="F10" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -865,7 +928,7 @@
         <v>42122</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -876,8 +939,11 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -899,59 +965,77 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>42123</v>
       </c>
       <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>42124</v>
       </c>
       <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>42125</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -959,16 +1043,22 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>42126</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -979,16 +1069,22 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="1">
         <v>42127</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -997,32 +1093,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="1">
         <v>42128</v>
       </c>
       <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>42129</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1034,335 +1136,501 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>42129</v>
       </c>
       <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>42130</v>
       </c>
       <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
         <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
       </c>
       <c r="F21" s="2">
         <v>0.33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>42131</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>42132</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>42133</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>42134</v>
       </c>
       <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>42135</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5">
         <v>42136</v>
       </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>42136</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>42136</v>
+        <v>42137</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.66</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="1">
         <v>42136</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>42137</v>
       </c>
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="H34">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="I35">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="1">
-        <v>42138</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="J36">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42140</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="K37">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42138</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="1">
-        <v>42139</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="C41" s="1">
+        <v>42143</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H41">
+        <v>25.55</v>
+      </c>
+      <c r="I41">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J41">
+        <v>5.55</v>
+      </c>
+      <c r="K41">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I43" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="1">
-        <v>42140</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="1">
-        <v>42141</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="1">
-        <v>42142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="1">
-        <v>42143</v>
+      <c r="J43" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
